--- a/database/SP Inventory.xlsx
+++ b/database/SP Inventory.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="50">
   <si>
     <t>add_account</t>
   </si>
@@ -231,13 +231,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -572,503 +575,669 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:D42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="29.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="2" max="2" width="6.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="6" style="3" customWidth="1"/>
+    <col min="4" max="4" width="43.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1">
+        <f>MATCH(A1,$D$1:$D$42,0)</f>
+        <v>1</v>
+      </c>
+      <c r="C1" s="3">
+        <f>MATCH(D1,$A$1:$A$39,0)</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <f>MATCH(B1,$A$1:$A$39,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <f t="shared" ref="C2:C41" si="0">MATCH(B2,$A$1:$A$39,0)</f>
+      <c r="B2" s="1">
+        <f t="shared" ref="B2:B39" si="0">MATCH(A2,$D$1:$D$42,0)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="C2" s="3">
+        <f t="shared" ref="C2:C42" si="1">MATCH(D2,$A$1:$A$39,0)</f>
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="D9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="C10" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="1">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D11" t="s">
         <v>40</v>
       </c>
-      <c r="C11" s="1" t="e">
-        <f t="shared" si="0"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="B12" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="C12" s="3" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="D12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="1">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C13" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="C15" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="1">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
+        <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="C16" s="1">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="D16" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="1">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="C17" s="3">
+        <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C18" s="3">
+        <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="1">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="C19" s="3">
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="D19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="1">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="C20" s="3">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="D20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="C21" s="3">
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>19</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="C22" s="3">
+        <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="1">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="C23" s="3">
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="C23" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="1">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="C24" s="3">
+        <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="C24" s="1">
-        <f t="shared" si="0"/>
-        <v>22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="1">
+        <f t="shared" si="0"/>
+        <v>28</v>
+      </c>
+      <c r="C25" s="3">
+        <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="C25" s="1">
-        <f t="shared" si="0"/>
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="1">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="C26" s="3">
+        <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="C26" s="1">
-        <f t="shared" si="0"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="D26" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="C27" s="3">
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="C27" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="D27" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="1">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="C28" s="3">
+        <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="C28" s="1">
-        <f t="shared" si="0"/>
-        <v>26</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="1">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="C29" s="3">
+        <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="C29" s="1">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="D29" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="C30" s="3">
+        <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="C30" s="1">
-        <f t="shared" si="0"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="D30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="1">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="C31" s="3">
+        <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="C31" s="1">
-        <f t="shared" si="0"/>
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="1">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="C32" s="3">
+        <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="C32" s="1">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="D32" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="1">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="C33" s="3">
+        <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="C33" s="1">
-        <f t="shared" si="0"/>
-        <v>31</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="D33" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="1">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="C34" s="3">
+        <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="C34" s="1">
-        <f t="shared" si="0"/>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="D34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="1">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="C35" s="3">
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="C35" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="D35" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="1">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="C36" s="3">
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="C36" s="1">
-        <f t="shared" si="0"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="D36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="1">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="C37" s="3">
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="C37" s="1">
-        <f t="shared" si="0"/>
-        <v>35</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="D37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="1">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="C38" s="3">
+        <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="C38" s="1">
-        <f t="shared" si="0"/>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="D38" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="1">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="C39" s="3">
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="C39" s="1">
-        <f t="shared" si="0"/>
+      <c r="D39" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="C40" s="3">
+        <f t="shared" si="1"/>
         <v>37</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
-      <c r="B40" t="s">
+      <c r="D40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="C41" s="3">
+        <f t="shared" si="1"/>
+        <v>38</v>
+      </c>
+      <c r="D41" t="s">
         <v>37</v>
       </c>
-      <c r="C40" s="1">
-        <f t="shared" si="0"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="C42" s="3">
+        <f t="shared" si="1"/>
+        <v>39</v>
+      </c>
+      <c r="D42" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="B41" t="s">
-        <v>38</v>
-      </c>
-      <c r="C41" s="1">
-        <f t="shared" si="0"/>
-        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -1086,7 +1255,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
